--- a/Dokumente/F-Tests.xlsx
+++ b/Dokumente/F-Tests.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>True Negatives:</t>
   </si>
@@ -438,20 +438,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="3" width="20.6328125" customWidth="1"/>
     <col min="4" max="4" width="21.453125" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="5" max="6" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -459,7 +459,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -473,8 +473,9 @@
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +491,9 @@
       <c r="E3" s="1">
         <v>493</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -507,8 +509,9 @@
       <c r="E4" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -524,8 +527,9 @@
       <c r="E5" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -541,8 +545,9 @@
       <c r="E6" s="1">
         <v>445</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -558,8 +563,9 @@
       <c r="E7" s="1">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -575,8 +581,9 @@
       <c r="E8" s="1">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -592,17 +599,20 @@
       <c r="E9" s="1">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -616,8 +626,11 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +646,9 @@
       <c r="E13" s="1">
         <v>494</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,8 +664,9 @@
       <c r="E14" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -667,8 +682,9 @@
       <c r="E15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,8 +700,9 @@
       <c r="E16" s="1">
         <v>466</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -701,8 +718,9 @@
       <c r="E17" s="1">
         <v>0.93</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,8 +736,9 @@
       <c r="E18" s="1">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,6 +754,7 @@
       <c r="E19" s="1">
         <v>0.96</v>
       </c>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumente/F-Tests.xlsx
+++ b/Dokumente/F-Tests.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14150"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>True Negatives:</t>
   </si>
@@ -63,6 +64,72 @@
   </si>
   <si>
     <t>Median, 3NN, Sliding</t>
+  </si>
+  <si>
+    <t>mvk021</t>
+  </si>
+  <si>
+    <t>mvk022</t>
+  </si>
+  <si>
+    <t>mvk101</t>
+  </si>
+  <si>
+    <t>mvk102</t>
+  </si>
+  <si>
+    <t>mvk105</t>
+  </si>
+  <si>
+    <t>mvk106</t>
+  </si>
+  <si>
+    <t>mvk107</t>
+  </si>
+  <si>
+    <t>mvk108</t>
+  </si>
+  <si>
+    <t>mvk110</t>
+  </si>
+  <si>
+    <t>mvk120</t>
+  </si>
+  <si>
+    <t>mvk122</t>
+  </si>
+  <si>
+    <t>mvk131</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MEDIAN</t>
   </si>
 </sst>
 </file>
@@ -440,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -760,4 +827,463 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>859</v>
+      </c>
+      <c r="C2">
+        <v>851</v>
+      </c>
+      <c r="D2">
+        <v>876</v>
+      </c>
+      <c r="E2">
+        <v>939</v>
+      </c>
+      <c r="F2">
+        <v>875</v>
+      </c>
+      <c r="G2">
+        <v>932</v>
+      </c>
+      <c r="H2">
+        <v>901</v>
+      </c>
+      <c r="I2">
+        <v>902</v>
+      </c>
+      <c r="J2">
+        <v>584</v>
+      </c>
+      <c r="K2">
+        <v>678</v>
+      </c>
+      <c r="L2">
+        <v>858</v>
+      </c>
+      <c r="M2">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>6</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>14</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>127</v>
+      </c>
+      <c r="C5">
+        <v>84</v>
+      </c>
+      <c r="D5">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>102</v>
+      </c>
+      <c r="G5">
+        <v>55</v>
+      </c>
+      <c r="H5">
+        <v>91</v>
+      </c>
+      <c r="I5">
+        <v>78</v>
+      </c>
+      <c r="J5">
+        <v>394</v>
+      </c>
+      <c r="K5">
+        <v>307</v>
+      </c>
+      <c r="L5">
+        <v>115</v>
+      </c>
+      <c r="M5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <f>B5/(B5+B3)</f>
+        <v>0.96212121212121215</v>
+      </c>
+      <c r="C6">
+        <f>C5/(C5+C3)</f>
+        <v>0.97674418604651159</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:M6" si="0">D5/(D5+D3)</f>
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.97142857142857142</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0.88709677419354838</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.978494623655914</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.93975903614457834</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.99746835443037973</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.96540880503144655</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.8984375</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.96163682864450128</v>
+      </c>
+      <c r="N6">
+        <f>AVERAGE(B6:M6)</f>
+        <v>0.94321632430805513</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O7" si="1">MEDIAN(B6:M6)</f>
+        <v>0.96376500857632941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <f>B5/(B5+B4)</f>
+        <v>0.93382352941176472</v>
+      </c>
+      <c r="C7">
+        <f>C5/(C5+C4)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:M7" si="2">D5/(D5+D4)</f>
+        <v>0.9838709677419355</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.83606557377049184</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.90163934426229508</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.93814432989690721</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>0.94939759036144578</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
+        <v>0.98713826366559487</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>0.89147286821705429</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.9330024813895782</v>
+      </c>
+      <c r="N7">
+        <f>AVERAGE(B7:M7)</f>
+        <v>0.87872443313041615</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.91732091282593664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <f>2*(B6*B7)/(B7+B6)</f>
+        <v>0.94776119402985082</v>
+      </c>
+      <c r="C8">
+        <f>2*(C6*C7)/(C7+C6)</f>
+        <v>0.72103004291845496</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:M8" si="3">2*(D6*D7)/(D7+D6)</f>
+        <v>0.99186991869918695</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0.8986784140969164</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0.89430894308943087</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0.95789473684210524</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0.88636363636363635</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0.97283950617283943</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>0.9761526232114468</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="3"/>
+        <v>0.89494163424124518</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>0.94710327455919396</v>
+      </c>
+      <c r="N8">
+        <f>AVERAGE(B8:M8)</f>
+        <v>0.90574532701869226</v>
+      </c>
+      <c r="O8">
+        <f>MEDIAN(B8:M8)</f>
+        <v>0.92289084432805524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B2:B5)</f>
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C2:C5)</f>
+        <v>1000</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:M9" si="4">SUM(D2:D5)</f>
+        <v>1000</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>